--- a/capiq_data/in_process_data/IQ3695566.xlsx
+++ b/capiq_data/in_process_data/IQ3695566.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410F92A3-304E-4E0D-9E2F-CC3C05D0DA31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6C361C-0B2A-4ED0-8456-0C5A1B624430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"5b18b809-6388-4540-a416-fba016a876ab"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c41c4ec3-bf6e-49c6-8c68-965b6964f56a"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$61</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$61</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$61</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$61</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$61</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$61</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$61</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$61</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$61</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$61</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$61</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$61</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$61</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$61</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$61</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$61</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$61</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$61</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$61</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$61</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$61</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$61</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$61</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$61</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$61</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$61</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,63 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,203 +790,203 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40512</v>
+        <v>38776</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>349.642</v>
+        <v>305.423</v>
       </c>
       <c r="D2">
-        <v>1213.4690000000001</v>
+        <v>1092.1320000000001</v>
       </c>
       <c r="E2">
-        <v>44744.194000000003</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1146.22</v>
+        <v>1068.625</v>
       </c>
       <c r="G2">
-        <v>51999.781000000003</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>60784.968000000001</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>34413.383000000002</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>17705.34</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6.5940000000000003</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>-524.63099999999997</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>36545.612000000001</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>54328.122000000003</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>17712.322</v>
+        <v>4636.8050000000003</v>
       </c>
       <c r="Q2">
-        <v>-2817.3580000000002</v>
+        <v>736.37</v>
       </c>
       <c r="R2">
-        <v>40512</v>
+        <v>38776</v>
       </c>
       <c r="S2">
-        <v>10300</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>6456.8459999999995</v>
+        <v>4600.4489999999996</v>
       </c>
       <c r="U2">
-        <v>5098.7330000000002</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1165.8240000000001</v>
+        <v>168.01300000000001</v>
       </c>
       <c r="W2">
-        <v>-10.976000000000001</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>160.85499999999999</v>
+        <v>-1481.595</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-3862.3609999999999</v>
+        <v>-31.547000000000001</v>
       </c>
       <c r="AA2">
-        <v>349.642</v>
+        <v>305.423</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40602</v>
+        <v>38868</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>464.892</v>
+        <v>343.27800000000002</v>
       </c>
       <c r="D3">
-        <v>1299.6849999999999</v>
+        <v>1192.3699999999999</v>
       </c>
       <c r="E3">
-        <v>47863.108</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1234.9680000000001</v>
+        <v>1192.3699999999999</v>
       </c>
       <c r="G3">
-        <v>54487.82</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>63506.608999999997</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>34858.993999999999</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>18989.974999999999</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>125.90900000000001</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-2134.2130000000002</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>37617.468999999997</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>56607.444000000003</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>19116.079000000002</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>72.691999999999993</v>
+        <v>-726.01</v>
       </c>
       <c r="R3">
-        <v>40602</v>
+        <v>38868</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>6899.165</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>5171.4250000000002</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1257.643</v>
+        <v>527.81799999999998</v>
       </c>
       <c r="W3">
-        <v>-11.026</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-1106.877</v>
+        <v>524.13400000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-199.999</v>
+        <v>-12.670999999999999</v>
       </c>
       <c r="AA3">
-        <v>464.892</v>
+        <v>343.27800000000002</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40694</v>
+        <v>38960</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>600.41899999999998</v>
+        <v>241.393</v>
       </c>
       <c r="D4">
-        <v>1561.884</v>
+        <v>1050.068</v>
       </c>
       <c r="E4">
-        <v>49120.851999999999</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1495.296</v>
+        <v>1050.068</v>
       </c>
       <c r="G4">
-        <v>54682.637000000002</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>63437.533000000003</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>35219.182999999997</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>17938.481</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>100.11499999999999</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +995,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>37975.752</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>55914.233</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>18038.621999999999</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-1398.4649999999999</v>
+        <v>220.65700000000001</v>
       </c>
       <c r="R4">
-        <v>40694</v>
+        <v>38960</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>7523.3</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>3772.96</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>960.79600000000005</v>
+        <v>603.54600000000005</v>
       </c>
       <c r="W4">
-        <v>-29.475000000000001</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-739.36099999999999</v>
+        <v>1009.016</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>98.372</v>
+        <v>-7.157</v>
       </c>
       <c r="AA4">
-        <v>600.41899999999998</v>
+        <v>241.393</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40786</v>
+        <v>39051</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>648.81799999999998</v>
+        <v>186.52199999999999</v>
       </c>
       <c r="D5">
-        <v>1689.4580000000001</v>
+        <v>967.21799999999996</v>
       </c>
       <c r="E5">
-        <v>51071.010999999999</v>
+        <v>22293.271000000001</v>
       </c>
       <c r="F5">
-        <v>1625.9110000000001</v>
+        <v>967.21799999999996</v>
       </c>
       <c r="G5">
-        <v>56759.904999999999</v>
+        <v>27080.774000000001</v>
       </c>
       <c r="H5">
-        <v>65725.667000000001</v>
+        <v>29067.241999999998</v>
       </c>
       <c r="I5">
-        <v>37586.883999999998</v>
+        <v>13343.859</v>
       </c>
       <c r="J5">
-        <v>17191.966</v>
+        <v>1501.3989999999999</v>
       </c>
       <c r="K5">
-        <v>100.004</v>
+        <v>6748.8140000000003</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,247 +1078,247 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>40527.785000000003</v>
+        <v>21784.892</v>
       </c>
       <c r="O5">
-        <v>57719.750999999997</v>
+        <v>23292.47</v>
       </c>
       <c r="P5">
-        <v>17818.204000000002</v>
+        <v>8256.3919999999998</v>
       </c>
       <c r="Q5">
-        <v>184.565</v>
+        <v>87.858000000000004</v>
       </c>
       <c r="R5">
-        <v>40786</v>
+        <v>39051</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="T5">
-        <v>8005.9160000000002</v>
+        <v>5774.7719999999999</v>
       </c>
       <c r="U5">
-        <v>3957.5250000000001</v>
+        <v>874.35699999999997</v>
       </c>
       <c r="V5">
-        <v>537.67499999999995</v>
+        <v>421.41</v>
       </c>
       <c r="W5">
-        <v>-29.210999999999999</v>
+        <v>-500</v>
       </c>
       <c r="X5">
-        <v>1874.6120000000001</v>
+        <v>569.70000000000005</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>6.1790000000000003</v>
       </c>
       <c r="Z5">
-        <v>-362.209</v>
+        <v>-14.728</v>
       </c>
       <c r="AA5">
-        <v>648.81799999999998</v>
+        <v>186.52199999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40877</v>
+        <v>39141</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>512.87099999999998</v>
+        <v>233.63200000000001</v>
       </c>
       <c r="D6">
-        <v>1493.972</v>
+        <v>1003.55</v>
       </c>
       <c r="E6">
-        <v>54751</v>
+        <v>24850.712</v>
       </c>
       <c r="F6">
-        <v>1424.8240000000001</v>
+        <v>1003.55</v>
       </c>
       <c r="G6">
-        <v>59664</v>
+        <v>27779.293000000001</v>
       </c>
       <c r="H6">
-        <v>69117</v>
+        <v>29763.803</v>
       </c>
       <c r="I6">
-        <v>39578</v>
+        <v>17661.877</v>
       </c>
       <c r="J6">
-        <v>18285</v>
+        <v>819.22500000000002</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>3172.1469999999999</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-3543.7370000000001</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>42473</v>
+        <v>23415.919999999998</v>
       </c>
       <c r="O6">
-        <v>60875</v>
+        <v>24235.145</v>
       </c>
       <c r="P6">
-        <v>18337</v>
+        <v>4678.5969999999998</v>
       </c>
       <c r="Q6">
-        <v>-1107.7919999999999</v>
+        <v>1628.6669999999999</v>
       </c>
       <c r="R6">
-        <v>40877</v>
+        <v>39141</v>
       </c>
       <c r="S6">
-        <v>11650</v>
+        <v>14000</v>
       </c>
       <c r="T6">
-        <v>8242</v>
+        <v>5528.6580000000004</v>
       </c>
       <c r="U6">
-        <v>2850</v>
+        <v>2503.0239999999999</v>
       </c>
       <c r="V6">
-        <v>841.88599999999997</v>
+        <v>509.64800000000002</v>
       </c>
       <c r="W6">
-        <v>-40.287999999999997</v>
+        <v>-500</v>
       </c>
       <c r="X6">
-        <v>2234.6260000000002</v>
+        <v>273.11700000000002</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>-327.16399999999999</v>
+        <v>-1.9670000000000001</v>
       </c>
       <c r="AA6">
-        <v>512.87099999999998</v>
+        <v>233.63200000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>39233</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>650</v>
+        <v>209.24199999999999</v>
       </c>
       <c r="D7">
-        <v>1720</v>
+        <v>1019.3440000000001</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>25066.059000000001</v>
       </c>
       <c r="F7">
-        <v>1648</v>
+        <v>1019.3440000000001</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>33603.947</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>35672.567999999999</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>23125.528999999999</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>948.23199999999997</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>4083.65</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-113</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>28944.052</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>29892.284</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>5031.8819999999996</v>
       </c>
       <c r="Q7">
-        <v>3551</v>
+        <v>5389.9179999999997</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>39233</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>5780.2839999999997</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>7892.942</v>
       </c>
       <c r="V7">
-        <v>705</v>
+        <v>-7.7670000000000003</v>
       </c>
       <c r="W7">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1543</v>
+        <v>5820.97</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-245</v>
+        <v>-10.430999999999999</v>
       </c>
       <c r="AA7">
-        <v>650</v>
+        <v>209.24199999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>39325</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>525</v>
+        <v>202.24</v>
       </c>
       <c r="D8">
-        <v>1603</v>
+        <v>1020.06</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>24971.905999999999</v>
       </c>
       <c r="F8">
-        <v>1532</v>
+        <v>1020.06</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>33705.550999999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>36141.010999999999</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>22977.291000000001</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2352.7779999999998</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3240.8969999999999</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1327,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>28115.685000000001</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>30473.728999999999</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>5598.9409999999998</v>
       </c>
       <c r="Q8">
-        <v>185</v>
+        <v>707.81899999999996</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>39325</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>5667.2820000000002</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>8600.7610000000004</v>
       </c>
       <c r="V8">
-        <v>807</v>
+        <v>838.84</v>
       </c>
       <c r="W8">
-        <v>-54</v>
+        <v>-350</v>
       </c>
       <c r="X8">
-        <v>1160</v>
+        <v>-22.670999999999999</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>5.266</v>
       </c>
       <c r="Z8">
-        <v>-66</v>
+        <v>-7.7309999999999999</v>
       </c>
       <c r="AA8">
-        <v>525</v>
+        <v>202.24</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>39416</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>637</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1869</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>20480.626</v>
       </c>
       <c r="F9">
-        <v>1798</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>35247.569000000003</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>37376.105000000003</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>24711.312999999998</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2129.1410000000001</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>260.11200000000002</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,247 +1410,247 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>26534.720000000001</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>31776.683000000001</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2394.2049999999999</v>
       </c>
       <c r="Q9">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>39416</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>5599.4219999999996</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>8085.4669999999996</v>
       </c>
       <c r="V9">
-        <v>1014</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>741</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>4.952</v>
       </c>
       <c r="Z9">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>39507</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>228</v>
+        <v>81.213999999999999</v>
       </c>
       <c r="D10">
-        <v>988</v>
+        <v>993.27300000000002</v>
       </c>
       <c r="E10">
-        <v>60455</v>
+        <v>22768.724999999999</v>
       </c>
       <c r="F10">
-        <v>902</v>
+        <v>993.27300000000002</v>
       </c>
       <c r="G10">
-        <v>63795</v>
+        <v>31526.851999999999</v>
       </c>
       <c r="H10">
-        <v>73491</v>
+        <v>37328.059000000001</v>
       </c>
       <c r="I10">
-        <v>42213</v>
+        <v>24941.776000000002</v>
       </c>
       <c r="J10">
-        <v>17666</v>
+        <v>1721.6279999999999</v>
       </c>
       <c r="K10">
-        <v>330</v>
+        <v>251.655</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-208.97300000000001</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-157.67699999999999</v>
       </c>
       <c r="N10">
-        <v>45784</v>
+        <v>27289.775000000001</v>
       </c>
       <c r="O10">
-        <v>63618</v>
+        <v>31673.718000000001</v>
       </c>
       <c r="P10">
-        <v>17996</v>
+        <v>2227.8020000000001</v>
       </c>
       <c r="Q10">
-        <v>-20806</v>
+        <v>47.08</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>39507</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>9873</v>
+        <v>5654.3410000000003</v>
       </c>
       <c r="U10">
-        <v>2584</v>
+        <v>8286.2900000000009</v>
       </c>
       <c r="V10">
-        <v>138</v>
+        <v>821.63699999999994</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-29.216999999999999</v>
       </c>
       <c r="X10">
-        <v>-27120</v>
+        <v>-175.053</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>4.633</v>
       </c>
       <c r="Z10">
-        <v>57</v>
+        <v>5.1429999999999998</v>
       </c>
       <c r="AA10">
-        <v>228</v>
+        <v>81.213999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>39599</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>673</v>
+        <v>234.148</v>
       </c>
       <c r="D11">
-        <v>1831</v>
+        <v>932.73800000000006</v>
       </c>
       <c r="E11">
-        <v>58439</v>
+        <v>21646.294000000002</v>
       </c>
       <c r="F11">
-        <v>1753</v>
+        <v>932.73800000000006</v>
       </c>
       <c r="G11">
-        <v>67407</v>
+        <v>31257.698</v>
       </c>
       <c r="H11">
-        <v>76139</v>
+        <v>34233.542000000001</v>
       </c>
       <c r="I11">
-        <v>42394</v>
+        <v>24767.649000000001</v>
       </c>
       <c r="J11">
-        <v>16892</v>
+        <v>1635.683</v>
       </c>
       <c r="K11">
-        <v>293</v>
+        <v>3.21</v>
       </c>
       <c r="L11">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-899</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>48947</v>
+        <v>26743.319</v>
       </c>
       <c r="O11">
-        <v>65840</v>
+        <v>28383.850999999999</v>
       </c>
       <c r="P11">
-        <v>19523</v>
+        <v>1893.1189999999999</v>
       </c>
       <c r="Q11">
-        <v>5483</v>
+        <v>114.59</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>39599</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>10299</v>
+        <v>5849.6909999999998</v>
       </c>
       <c r="U11">
-        <v>8067</v>
+        <v>8765.384</v>
       </c>
       <c r="V11">
-        <v>1492</v>
+        <v>744.62900000000002</v>
       </c>
       <c r="W11">
-        <v>-79</v>
+        <v>-29.254000000000001</v>
       </c>
       <c r="X11">
-        <v>1366</v>
+        <v>-829.53800000000001</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>4.3090000000000002</v>
       </c>
       <c r="Z11">
-        <v>907</v>
+        <v>3.1960000000000002</v>
       </c>
       <c r="AA11">
-        <v>673</v>
+        <v>234.148</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>39691</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>602</v>
+        <v>180.053</v>
       </c>
       <c r="D12">
-        <v>1802</v>
+        <v>886.33199999999999</v>
       </c>
       <c r="E12">
-        <v>59872</v>
+        <v>20807.714</v>
       </c>
       <c r="F12">
-        <v>1717</v>
+        <v>886.33199999999999</v>
       </c>
       <c r="G12">
-        <v>66525</v>
+        <v>34098.341999999997</v>
       </c>
       <c r="H12">
-        <v>74944</v>
+        <v>37317.815000000002</v>
       </c>
       <c r="I12">
-        <v>42568</v>
+        <v>26959.253000000001</v>
       </c>
       <c r="J12">
-        <v>17695</v>
+        <v>1392.441</v>
       </c>
       <c r="K12">
-        <v>275</v>
+        <v>2.13</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1659,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>46801</v>
+        <v>29921.998</v>
       </c>
       <c r="O12">
-        <v>64496</v>
+        <v>31317.421999999999</v>
       </c>
       <c r="P12">
-        <v>18308</v>
+        <v>1856.393</v>
       </c>
       <c r="Q12">
-        <v>-2323</v>
+        <v>1533.954</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>39691</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>10448</v>
+        <v>6000.393</v>
       </c>
       <c r="U12">
-        <v>5744</v>
+        <v>10475.475</v>
       </c>
       <c r="V12">
-        <v>595</v>
+        <v>1306.8340000000001</v>
       </c>
       <c r="W12">
-        <v>-108</v>
+        <v>-29.288</v>
       </c>
       <c r="X12">
-        <v>-1525</v>
+        <v>2121.009</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>2.6110000000000002</v>
       </c>
       <c r="Z12">
-        <v>247</v>
+        <v>-5.742</v>
       </c>
       <c r="AA12">
-        <v>602</v>
+        <v>180.053</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>39782</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>593</v>
+        <v>432.33499999999998</v>
       </c>
       <c r="D13">
-        <v>1731</v>
+        <v>383.72500000000002</v>
       </c>
       <c r="E13">
-        <v>61003</v>
+        <v>24157.848999999998</v>
       </c>
       <c r="F13">
-        <v>1650</v>
+        <v>383.72500000000002</v>
       </c>
       <c r="G13">
-        <v>67567</v>
+        <v>36246.769</v>
       </c>
       <c r="H13">
-        <v>75544</v>
+        <v>39892.381999999998</v>
       </c>
       <c r="I13">
-        <v>43117</v>
+        <v>28530.521000000001</v>
       </c>
       <c r="J13">
-        <v>18163</v>
+        <v>1481.76</v>
       </c>
       <c r="K13">
-        <v>136</v>
+        <v>500</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,247 +1742,247 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>46777</v>
+        <v>31713.253000000001</v>
       </c>
       <c r="O13">
-        <v>64942</v>
+        <v>33976.559000000001</v>
       </c>
       <c r="P13">
-        <v>18801</v>
+        <v>2235.3829999999998</v>
       </c>
       <c r="Q13">
-        <v>-121</v>
+        <v>-311.57600000000002</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>39782</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>11900</v>
       </c>
       <c r="T13">
-        <v>10602</v>
+        <v>5915.8230000000003</v>
       </c>
       <c r="U13">
-        <v>5623</v>
+        <v>10171.143</v>
       </c>
       <c r="V13">
-        <v>448</v>
+        <v>1631.059</v>
       </c>
       <c r="W13">
-        <v>-107</v>
+        <v>-29.196999999999999</v>
       </c>
       <c r="X13">
-        <v>565</v>
+        <v>1919.0250000000001</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>3.6459999999999999</v>
       </c>
       <c r="Z13">
-        <v>-98</v>
+        <v>-84.718000000000004</v>
       </c>
       <c r="AA13">
-        <v>593</v>
+        <v>432.33499999999998</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>39872</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>602</v>
+        <v>120.39400000000001</v>
       </c>
       <c r="D14">
-        <v>1775</v>
+        <v>280.375</v>
       </c>
       <c r="E14">
-        <v>64123</v>
+        <v>26429.873</v>
       </c>
       <c r="F14">
-        <v>1686</v>
+        <v>280.375</v>
       </c>
       <c r="G14">
-        <v>71494</v>
+        <v>36876.767</v>
       </c>
       <c r="H14">
-        <v>79340</v>
+        <v>40606.517999999996</v>
       </c>
       <c r="I14">
-        <v>44959</v>
+        <v>28334.317999999999</v>
       </c>
       <c r="J14">
-        <v>20473</v>
+        <v>1429.325</v>
       </c>
       <c r="K14">
-        <v>147</v>
+        <v>2375.047</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-302.45600000000002</v>
       </c>
       <c r="N14">
-        <v>47973</v>
+        <v>33174.536</v>
       </c>
       <c r="O14">
-        <v>68531</v>
+        <v>34607.167000000001</v>
       </c>
       <c r="P14">
-        <v>20621</v>
+        <v>3807.6779999999999</v>
       </c>
       <c r="Q14">
-        <v>931</v>
+        <v>-1446.9349999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>39872</v>
       </c>
       <c r="S14">
-        <v>14128</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>10809</v>
+        <v>5999.3509999999997</v>
       </c>
       <c r="U14">
-        <v>6554</v>
+        <v>8724.2080000000005</v>
       </c>
       <c r="V14">
-        <v>982</v>
+        <v>528.37900000000002</v>
       </c>
       <c r="W14">
-        <v>-105</v>
+        <v>-29.263000000000002</v>
       </c>
       <c r="X14">
-        <v>3210</v>
+        <v>1344.5039999999999</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>3.306</v>
       </c>
       <c r="Z14">
-        <v>-45</v>
+        <v>-72.991</v>
       </c>
       <c r="AA14">
-        <v>602</v>
+        <v>120.39400000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>39964</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>631</v>
+        <v>225.8</v>
       </c>
       <c r="D15">
-        <v>1806</v>
+        <v>502.46300000000002</v>
       </c>
       <c r="E15">
-        <v>62128</v>
+        <v>25730.855</v>
       </c>
       <c r="F15">
-        <v>1722</v>
+        <v>502.46300000000002</v>
       </c>
       <c r="G15">
-        <v>72788</v>
+        <v>37534.277000000002</v>
       </c>
       <c r="H15">
-        <v>79584</v>
+        <v>41518.288</v>
       </c>
       <c r="I15">
-        <v>44984</v>
+        <v>29149.73</v>
       </c>
       <c r="J15">
-        <v>18142</v>
+        <v>1427.0429999999999</v>
       </c>
       <c r="K15">
-        <v>132</v>
+        <v>500</v>
       </c>
       <c r="L15">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-2352</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>50421</v>
+        <v>32675.605</v>
       </c>
       <c r="O15">
-        <v>68563</v>
+        <v>34102.648000000001</v>
       </c>
       <c r="P15">
-        <v>20314</v>
+        <v>1927.0429999999999</v>
       </c>
       <c r="Q15">
-        <v>2177</v>
+        <v>970.61699999999996</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>39964</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>11021</v>
+        <v>7415.64</v>
       </c>
       <c r="U15">
-        <v>8731</v>
+        <v>9694.8250000000007</v>
       </c>
       <c r="V15">
-        <v>1129</v>
+        <v>1385.1990000000001</v>
       </c>
       <c r="W15">
-        <v>-106</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-763</v>
+        <v>142.11699999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>1143</v>
+        <v>-200.85599999999999</v>
       </c>
       <c r="AA15">
-        <v>631</v>
+        <v>225.8</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>40056</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>644</v>
+        <v>577.45399999999995</v>
       </c>
       <c r="D16">
-        <v>1812</v>
+        <v>991.61</v>
       </c>
       <c r="E16">
-        <v>64132</v>
+        <v>23998.407999999999</v>
       </c>
       <c r="F16">
-        <v>1725</v>
+        <v>991.61</v>
       </c>
       <c r="G16">
-        <v>72072</v>
+        <v>37110.053999999996</v>
       </c>
       <c r="H16">
-        <v>78937</v>
+        <v>42698.29</v>
       </c>
       <c r="I16">
-        <v>44445</v>
+        <v>29567.137999999999</v>
       </c>
       <c r="J16">
-        <v>19057</v>
+        <v>1392.5229999999999</v>
       </c>
       <c r="K16">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +1991,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>48499</v>
+        <v>32916.953999999998</v>
       </c>
       <c r="O16">
-        <v>67556</v>
+        <v>34312.088000000003</v>
       </c>
       <c r="P16">
-        <v>20193</v>
+        <v>1795.134</v>
       </c>
       <c r="Q16">
-        <v>-1852</v>
+        <v>1133.4169999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>40056</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>11381</v>
+        <v>8386.2019999999993</v>
       </c>
       <c r="U16">
-        <v>6879</v>
+        <v>10828.242</v>
       </c>
       <c r="V16">
-        <v>642</v>
+        <v>682.57100000000003</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>-25.07</v>
       </c>
       <c r="X16">
-        <v>-985</v>
+        <v>793.71400000000006</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>2.6110000000000002</v>
       </c>
       <c r="Z16">
-        <v>-100</v>
+        <v>3.266</v>
       </c>
       <c r="AA16">
-        <v>644</v>
+        <v>577.45399999999995</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>40147</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>644</v>
+        <v>352.53699999999998</v>
       </c>
       <c r="D17">
-        <v>1832</v>
+        <v>705.84</v>
       </c>
       <c r="E17">
-        <v>65574</v>
+        <v>22087.473000000002</v>
       </c>
       <c r="F17">
-        <v>1745</v>
+        <v>705.84</v>
       </c>
       <c r="G17">
-        <v>73871</v>
+        <v>37224.635000000002</v>
       </c>
       <c r="H17">
-        <v>80596</v>
+        <v>46020.987000000001</v>
       </c>
       <c r="I17">
-        <v>45382</v>
+        <v>32093.011999999999</v>
       </c>
       <c r="J17">
-        <v>20917</v>
+        <v>2025.8330000000001</v>
       </c>
       <c r="K17">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,247 +2074,247 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>48378</v>
+        <v>35557.339</v>
       </c>
       <c r="O17">
-        <v>69295</v>
+        <v>37585.440000000002</v>
       </c>
       <c r="P17">
-        <v>21067</v>
+        <v>2428.1010000000001</v>
       </c>
       <c r="Q17">
-        <v>503</v>
+        <v>2192.4769999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>40147</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="T17">
-        <v>11301</v>
+        <v>8435.5470000000005</v>
       </c>
       <c r="U17">
-        <v>7382</v>
+        <v>13020.718999999999</v>
       </c>
       <c r="V17">
-        <v>1055</v>
+        <v>1001.7430000000001</v>
       </c>
       <c r="W17">
-        <v>-120</v>
+        <v>-26.297000000000001</v>
       </c>
       <c r="X17">
-        <v>1075</v>
+        <v>3132.1289999999999</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>2.2679999999999998</v>
       </c>
       <c r="Z17">
-        <v>-102</v>
+        <v>-1333.3679999999999</v>
       </c>
       <c r="AA17">
-        <v>644</v>
+        <v>352.53699999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>40237</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>404</v>
+        <v>-103.538</v>
       </c>
       <c r="D18">
-        <v>1757</v>
+        <v>303.99299999999999</v>
       </c>
       <c r="E18">
-        <v>68101</v>
+        <v>45886.156000000003</v>
       </c>
       <c r="F18">
-        <v>1669</v>
+        <v>238.57499999999999</v>
       </c>
       <c r="G18">
-        <v>76274</v>
+        <v>62290.476999999999</v>
       </c>
       <c r="H18">
-        <v>83126</v>
+        <v>66818.951000000001</v>
       </c>
       <c r="I18">
-        <v>46089</v>
+        <v>35051.665999999997</v>
       </c>
       <c r="J18">
-        <v>22543</v>
+        <v>13840.871999999999</v>
       </c>
       <c r="K18">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-3214.913</v>
       </c>
       <c r="N18">
-        <v>49280</v>
+        <v>45961.338000000003</v>
       </c>
       <c r="O18">
-        <v>71992</v>
+        <v>59803.902999999998</v>
       </c>
       <c r="P18">
-        <v>22680</v>
+        <v>22392.2</v>
       </c>
       <c r="Q18">
-        <v>-98</v>
+        <v>-292.39800000000002</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>40237</v>
       </c>
       <c r="S18">
-        <v>14676</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>11134</v>
+        <v>7015.0479999999998</v>
       </c>
       <c r="U18">
-        <v>7284</v>
+        <v>12728.321</v>
       </c>
       <c r="V18">
-        <v>1000</v>
+        <v>1135.1020000000001</v>
       </c>
       <c r="W18">
-        <v>-119</v>
+        <v>-26.291</v>
       </c>
       <c r="X18">
-        <v>1774</v>
+        <v>-312.98500000000001</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1.6930000000000001</v>
       </c>
       <c r="Z18">
-        <v>26</v>
+        <v>978.33699999999999</v>
       </c>
       <c r="AA18">
-        <v>404</v>
+        <v>-103.538</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>40329</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>586</v>
+        <v>258.06700000000001</v>
       </c>
       <c r="D19">
-        <v>1781</v>
+        <v>935.08500000000004</v>
       </c>
       <c r="E19">
-        <v>65692</v>
+        <v>44677.491000000002</v>
       </c>
       <c r="F19">
-        <v>1693</v>
+        <v>871.99800000000005</v>
       </c>
       <c r="G19">
-        <v>78466</v>
+        <v>57114.936000000002</v>
       </c>
       <c r="H19">
-        <v>84178</v>
+        <v>62153.678</v>
       </c>
       <c r="I19">
-        <v>46427</v>
+        <v>35021.974999999999</v>
       </c>
       <c r="J19">
-        <v>20623</v>
+        <v>13151.921</v>
       </c>
       <c r="K19">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-1083</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>52344</v>
+        <v>42962.726999999999</v>
       </c>
       <c r="O19">
-        <v>72967</v>
+        <v>56115.411</v>
       </c>
       <c r="P19">
-        <v>23145</v>
+        <v>18311.127</v>
       </c>
       <c r="Q19">
-        <v>4530</v>
+        <v>-2392.5920000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>40329</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>11211</v>
+        <v>6038.2669999999998</v>
       </c>
       <c r="U19">
-        <v>11814</v>
+        <v>10335.728999999999</v>
       </c>
       <c r="V19">
-        <v>1063</v>
+        <v>1308.7049999999999</v>
       </c>
       <c r="W19">
-        <v>-119</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>214</v>
+        <v>-5356.0259999999998</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="Z19">
-        <v>1168</v>
+        <v>-532.30899999999997</v>
       </c>
       <c r="AA19">
-        <v>586</v>
+        <v>258.06700000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>40421</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>599</v>
+        <v>260.61700000000002</v>
       </c>
       <c r="D20">
-        <v>1869</v>
+        <v>998.68200000000002</v>
       </c>
       <c r="E20">
-        <v>67138</v>
+        <v>44949.351000000002</v>
       </c>
       <c r="F20">
-        <v>1779</v>
+        <v>936.32500000000005</v>
       </c>
       <c r="G20">
-        <v>79295</v>
+        <v>54994.732000000004</v>
       </c>
       <c r="H20">
-        <v>84911</v>
+        <v>60057.553</v>
       </c>
       <c r="I20">
-        <v>46316</v>
+        <v>34246.803999999996</v>
       </c>
       <c r="J20">
-        <v>22599</v>
+        <v>12518.735000000001</v>
       </c>
       <c r="K20">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2323,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>51049</v>
+        <v>41426.944000000003</v>
       </c>
       <c r="O20">
-        <v>73648</v>
+        <v>53946.256000000001</v>
       </c>
       <c r="P20">
-        <v>24277</v>
+        <v>17709.386999999999</v>
       </c>
       <c r="Q20">
-        <v>-1219</v>
+        <v>-2419.6379999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>40421</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>11263</v>
+        <v>6111.2969999999996</v>
       </c>
       <c r="U20">
-        <v>10595</v>
+        <v>7916.0910000000003</v>
       </c>
       <c r="V20">
-        <v>600</v>
+        <v>262.95499999999998</v>
       </c>
       <c r="W20">
-        <v>-135</v>
+        <v>-10.958</v>
       </c>
       <c r="X20">
-        <v>475</v>
+        <v>-1563.4639999999999</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="Z20">
-        <v>41</v>
+        <v>-150.90299999999999</v>
       </c>
       <c r="AA20">
-        <v>599</v>
+        <v>260.61700000000002</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>40512</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>612</v>
+        <v>349.642</v>
       </c>
       <c r="D21">
-        <v>1856</v>
+        <v>1213.4690000000001</v>
       </c>
       <c r="E21">
-        <v>68334</v>
+        <v>44744.194000000003</v>
       </c>
       <c r="F21">
-        <v>1772</v>
+        <v>1146.22</v>
       </c>
       <c r="G21">
-        <v>79385</v>
+        <v>51999.781000000003</v>
       </c>
       <c r="H21">
-        <v>85611</v>
+        <v>60784.968000000001</v>
       </c>
       <c r="I21">
-        <v>46605</v>
+        <v>34413.383000000002</v>
       </c>
       <c r="J21">
-        <v>23550</v>
+        <v>17705.34</v>
       </c>
       <c r="K21">
-        <v>69</v>
+        <v>6.5940000000000003</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,247 +2406,247 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>50758</v>
+        <v>36545.612000000001</v>
       </c>
       <c r="O21">
-        <v>74308</v>
+        <v>54328.122000000003</v>
       </c>
       <c r="P21">
-        <v>23869</v>
+        <v>17712.322</v>
       </c>
       <c r="Q21">
-        <v>-345</v>
+        <v>-2817.3580000000002</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>40512</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>10300</v>
       </c>
       <c r="T21">
-        <v>11303</v>
+        <v>6456.8459999999995</v>
       </c>
       <c r="U21">
-        <v>10250</v>
+        <v>5098.7330000000002</v>
       </c>
       <c r="V21">
-        <v>1147</v>
+        <v>1165.8240000000001</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>-10.976000000000001</v>
       </c>
       <c r="X21">
-        <v>-745</v>
+        <v>160.85499999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>66</v>
+        <v>-3862.3609999999999</v>
       </c>
       <c r="AA21">
-        <v>612</v>
+        <v>349.642</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>40602</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>500</v>
+        <v>464.892</v>
       </c>
       <c r="D22">
-        <v>1721</v>
+        <v>1299.6849999999999</v>
       </c>
       <c r="E22">
-        <v>70516</v>
+        <v>47863.108</v>
       </c>
       <c r="F22">
-        <v>1634</v>
+        <v>1234.9680000000001</v>
       </c>
       <c r="G22">
-        <v>80869</v>
+        <v>54487.82</v>
       </c>
       <c r="H22">
-        <v>86799</v>
+        <v>63506.608999999997</v>
       </c>
       <c r="I22">
-        <v>47531</v>
+        <v>34858.993999999999</v>
       </c>
       <c r="J22">
-        <v>24650</v>
+        <v>18989.974999999999</v>
       </c>
       <c r="K22">
-        <v>38</v>
+        <v>125.90900000000001</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-2134.2130000000002</v>
       </c>
       <c r="N22">
-        <v>50724</v>
+        <v>37617.468999999997</v>
       </c>
       <c r="O22">
-        <v>75524</v>
+        <v>56607.444000000003</v>
       </c>
       <c r="P22">
-        <v>24688</v>
+        <v>19116.079000000002</v>
       </c>
       <c r="Q22">
-        <v>-678</v>
+        <v>72.691999999999993</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>40602</v>
       </c>
       <c r="S22">
-        <v>15036</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>11275</v>
+        <v>6899.165</v>
       </c>
       <c r="U22">
-        <v>9572</v>
+        <v>5171.4250000000002</v>
       </c>
       <c r="V22">
-        <v>1044</v>
+        <v>1257.643</v>
       </c>
       <c r="W22">
-        <v>-130</v>
+        <v>-11.026</v>
       </c>
       <c r="X22">
-        <v>1358</v>
+        <v>-1106.877</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-506</v>
+        <v>-199.999</v>
       </c>
       <c r="AA22">
-        <v>500</v>
+        <v>464.892</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>40694</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>575</v>
+        <v>600.41899999999998</v>
       </c>
       <c r="D23">
-        <v>1800</v>
+        <v>1561.884</v>
       </c>
       <c r="E23">
-        <v>68399</v>
+        <v>49120.851999999999</v>
       </c>
       <c r="F23">
-        <v>1712</v>
+        <v>1495.296</v>
       </c>
       <c r="G23">
-        <v>82268</v>
+        <v>54682.637000000002</v>
       </c>
       <c r="H23">
-        <v>88093</v>
+        <v>63437.533000000003</v>
       </c>
       <c r="I23">
-        <v>48465</v>
+        <v>35219.182999999997</v>
       </c>
       <c r="J23">
-        <v>22602</v>
+        <v>17938.481</v>
       </c>
       <c r="K23">
-        <v>78</v>
+        <v>100.11499999999999</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-980</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>54175</v>
+        <v>37975.752</v>
       </c>
       <c r="O23">
-        <v>76777</v>
+        <v>55914.233</v>
       </c>
       <c r="P23">
-        <v>24830</v>
+        <v>18038.621999999999</v>
       </c>
       <c r="Q23">
-        <v>2563</v>
+        <v>-1398.4649999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>40694</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>11316</v>
+        <v>7523.3</v>
       </c>
       <c r="U23">
-        <v>12135</v>
+        <v>3772.96</v>
       </c>
       <c r="V23">
-        <v>1158</v>
+        <v>960.79600000000005</v>
       </c>
       <c r="W23">
-        <v>-129</v>
+        <v>-29.475000000000001</v>
       </c>
       <c r="X23">
-        <v>423</v>
+        <v>-739.36099999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>146</v>
+        <v>98.372</v>
       </c>
       <c r="AA23">
-        <v>575</v>
+        <v>600.41899999999998</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>40786</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>616</v>
+        <v>648.81799999999998</v>
       </c>
       <c r="D24">
-        <v>1804</v>
+        <v>1689.4580000000001</v>
       </c>
       <c r="E24">
-        <v>69975</v>
+        <v>51071.010999999999</v>
       </c>
       <c r="F24">
-        <v>1715</v>
+        <v>1625.9110000000001</v>
       </c>
       <c r="G24">
-        <v>82466</v>
+        <v>56759.904999999999</v>
       </c>
       <c r="H24">
-        <v>87511</v>
+        <v>65725.667000000001</v>
       </c>
       <c r="I24">
-        <v>48527</v>
+        <v>37586.883999999998</v>
       </c>
       <c r="J24">
-        <v>23431</v>
+        <v>17191.966</v>
       </c>
       <c r="K24">
-        <v>88</v>
+        <v>100.004</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2655,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>52683</v>
+        <v>40527.785000000003</v>
       </c>
       <c r="O24">
-        <v>76114</v>
+        <v>57719.750999999997</v>
       </c>
       <c r="P24">
-        <v>24769</v>
+        <v>17818.204000000002</v>
       </c>
       <c r="Q24">
-        <v>-1518</v>
+        <v>184.565</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>40786</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>11397</v>
+        <v>8005.9160000000002</v>
       </c>
       <c r="U24">
-        <v>10617</v>
+        <v>3957.5250000000001</v>
       </c>
       <c r="V24">
-        <v>658</v>
+        <v>537.67499999999995</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>-29.210999999999999</v>
       </c>
       <c r="X24">
-        <v>-598</v>
+        <v>1874.6120000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-574</v>
+        <v>-362.209</v>
       </c>
       <c r="AA24">
-        <v>616</v>
+        <v>648.81799999999998</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>40877</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>639</v>
+        <v>512.87099999999998</v>
       </c>
       <c r="D25">
-        <v>1856</v>
+        <v>1493.972</v>
       </c>
       <c r="E25">
-        <v>71527</v>
+        <v>54751</v>
       </c>
       <c r="F25">
-        <v>1775</v>
+        <v>1424.8240000000001</v>
       </c>
       <c r="G25">
-        <v>86159</v>
+        <v>59664</v>
       </c>
       <c r="H25">
-        <v>90541</v>
+        <v>69117</v>
       </c>
       <c r="I25">
-        <v>49245</v>
+        <v>39578</v>
       </c>
       <c r="J25">
-        <v>25580</v>
+        <v>18285</v>
       </c>
       <c r="K25">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,247 +2738,247 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>53614</v>
+        <v>42473</v>
       </c>
       <c r="O25">
-        <v>79194</v>
+        <v>60875</v>
       </c>
       <c r="P25">
-        <v>26896</v>
+        <v>18337</v>
       </c>
       <c r="Q25">
-        <v>1459</v>
+        <v>-1107.7919999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>40877</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>11650</v>
       </c>
       <c r="T25">
-        <v>11347</v>
+        <v>8242</v>
       </c>
       <c r="U25">
-        <v>12076</v>
+        <v>2850</v>
       </c>
       <c r="V25">
-        <v>1317</v>
+        <v>841.88599999999997</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>-40.287999999999997</v>
       </c>
       <c r="X25">
-        <v>2149</v>
+        <v>2234.6260000000002</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z25">
-        <v>795</v>
+        <v>-327.16399999999999</v>
       </c>
       <c r="AA25">
-        <v>639</v>
+        <v>512.87099999999998</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>40999</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>563</v>
+        <v>650</v>
       </c>
       <c r="D26">
-        <v>1780</v>
+        <v>1720</v>
       </c>
       <c r="E26">
-        <v>75087</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1699</v>
+        <v>1648</v>
       </c>
       <c r="G26">
-        <v>87827</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>92308</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>51992</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>25443</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-113</v>
       </c>
       <c r="N26">
-        <v>55377</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>80985</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>25537</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>-162</v>
+        <v>3551</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>40999</v>
       </c>
       <c r="S26">
-        <v>15549</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>11323</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>11914</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>1292</v>
+        <v>705</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>-53</v>
       </c>
       <c r="X26">
-        <v>837</v>
+        <v>1543</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>892</v>
+        <v>-245</v>
       </c>
       <c r="AA26">
-        <v>563</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>41090</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>564</v>
+        <v>525</v>
       </c>
       <c r="D27">
-        <v>1753</v>
+        <v>1603</v>
       </c>
       <c r="E27">
-        <v>73589</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1673</v>
+        <v>1532</v>
       </c>
       <c r="G27">
-        <v>90603</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>94795</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>53522</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>22573</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-925</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>60957</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>83530</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>26832</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>4254</v>
+        <v>185</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>41090</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>11265</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>15163</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>1013</v>
+        <v>807</v>
       </c>
       <c r="W27">
-        <v>-127</v>
+        <v>-54</v>
       </c>
       <c r="X27">
-        <v>2253</v>
+        <v>1160</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>25</v>
+        <v>-66</v>
       </c>
       <c r="AA27">
-        <v>564</v>
+        <v>525</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>41182</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>546</v>
+        <v>637</v>
       </c>
       <c r="D28">
-        <v>1779</v>
+        <v>1869</v>
       </c>
       <c r="E28">
-        <v>75613</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1702</v>
+        <v>1798</v>
       </c>
       <c r="G28">
-        <v>89407</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>93757</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>52864</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>24237</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +2987,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>58261</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>82498</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>26451</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>-3220</v>
+        <v>966</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>41182</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>11259</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>12950</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="W28">
-        <v>-124</v>
+        <v>-52</v>
       </c>
       <c r="X28">
-        <v>-1664</v>
+        <v>741</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="AA28">
-        <v>546</v>
+        <v>637</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>41274</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>602</v>
+        <v>228</v>
       </c>
       <c r="D29">
-        <v>1851</v>
+        <v>988</v>
       </c>
       <c r="E29">
-        <v>77912</v>
+        <v>60455</v>
       </c>
       <c r="F29">
-        <v>1773</v>
+        <v>902</v>
       </c>
       <c r="G29">
-        <v>93240</v>
+        <v>63795</v>
       </c>
       <c r="H29">
-        <v>97608</v>
+        <v>73491</v>
       </c>
       <c r="I29">
-        <v>56135</v>
+        <v>42213</v>
       </c>
       <c r="J29">
-        <v>25536</v>
+        <v>17666</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,247 +3070,247 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>60885</v>
+        <v>45784</v>
       </c>
       <c r="O29">
-        <v>86421</v>
+        <v>63618</v>
       </c>
       <c r="P29">
-        <v>26747</v>
+        <v>17996</v>
       </c>
       <c r="Q29">
-        <v>1485</v>
+        <v>-20806</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>41274</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>11187</v>
+        <v>9873</v>
       </c>
       <c r="U29">
-        <v>13249</v>
+        <v>2584</v>
       </c>
       <c r="V29">
-        <v>1552</v>
+        <v>138</v>
       </c>
       <c r="W29">
-        <v>-139</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>2850</v>
+        <v>-27120</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="AA29">
-        <v>602</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>41364</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>387</v>
+        <v>673</v>
       </c>
       <c r="D30">
-        <v>1935</v>
+        <v>1831</v>
       </c>
       <c r="E30">
-        <v>81627</v>
+        <v>58439</v>
       </c>
       <c r="F30">
-        <v>1855</v>
+        <v>1753</v>
       </c>
       <c r="G30">
-        <v>95838</v>
+        <v>67407</v>
       </c>
       <c r="H30">
-        <v>100087</v>
+        <v>76139</v>
       </c>
       <c r="I30">
-        <v>58764</v>
+        <v>42394</v>
       </c>
       <c r="J30">
-        <v>26326</v>
+        <v>16892</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>293</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-899</v>
       </c>
       <c r="N30">
-        <v>62690</v>
+        <v>48947</v>
       </c>
       <c r="O30">
-        <v>89195</v>
+        <v>65840</v>
       </c>
       <c r="P30">
-        <v>26329</v>
+        <v>19523</v>
       </c>
       <c r="Q30">
-        <v>-1141</v>
+        <v>5483</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>41364</v>
       </c>
       <c r="S30">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>10892</v>
+        <v>10299</v>
       </c>
       <c r="U30">
-        <v>13306</v>
+        <v>8067</v>
       </c>
       <c r="V30">
-        <v>1624</v>
+        <v>1492</v>
       </c>
       <c r="W30">
-        <v>-137</v>
+        <v>-79</v>
       </c>
       <c r="X30">
-        <v>1522</v>
+        <v>1366</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>16</v>
+        <v>907</v>
       </c>
       <c r="AA30">
-        <v>387</v>
+        <v>673</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>41455</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>666</v>
+        <v>602</v>
       </c>
       <c r="D31">
-        <v>1824</v>
+        <v>1802</v>
       </c>
       <c r="E31">
-        <v>80008</v>
+        <v>59872</v>
       </c>
       <c r="F31">
-        <v>1742</v>
+        <v>1717</v>
       </c>
       <c r="G31">
-        <v>97946</v>
+        <v>66525</v>
       </c>
       <c r="H31">
-        <v>101967</v>
+        <v>74944</v>
       </c>
       <c r="I31">
-        <v>61130</v>
+        <v>42568</v>
       </c>
       <c r="J31">
-        <v>22974</v>
+        <v>17695</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-2545</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>68122</v>
+        <v>46801</v>
       </c>
       <c r="O31">
-        <v>91096</v>
+        <v>64496</v>
       </c>
       <c r="P31">
-        <v>26245</v>
+        <v>18308</v>
       </c>
       <c r="Q31">
-        <v>3711</v>
+        <v>-2323</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>41455</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>10871</v>
+        <v>10448</v>
       </c>
       <c r="U31">
-        <v>17011</v>
+        <v>5744</v>
       </c>
       <c r="V31">
-        <v>1238</v>
+        <v>595</v>
       </c>
       <c r="W31">
-        <v>-142</v>
+        <v>-108</v>
       </c>
       <c r="X31">
-        <v>1557</v>
+        <v>-1525</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="AA31">
-        <v>666</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>41547</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>669</v>
+        <v>593</v>
       </c>
       <c r="D32">
-        <v>1861</v>
+        <v>1731</v>
       </c>
       <c r="E32">
-        <v>81961</v>
+        <v>61003</v>
       </c>
       <c r="F32">
-        <v>1775</v>
+        <v>1650</v>
       </c>
       <c r="G32">
-        <v>98736</v>
+        <v>67567</v>
       </c>
       <c r="H32">
-        <v>102751</v>
+        <v>75544</v>
       </c>
       <c r="I32">
-        <v>61683</v>
+        <v>43117</v>
       </c>
       <c r="J32">
-        <v>23479</v>
+        <v>18163</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3319,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>68383</v>
+        <v>46777</v>
       </c>
       <c r="O32">
-        <v>91862</v>
+        <v>64942</v>
       </c>
       <c r="P32">
-        <v>26252</v>
+        <v>18801</v>
       </c>
       <c r="Q32">
-        <v>-1179</v>
+        <v>-121</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>41547</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>10889</v>
+        <v>10602</v>
       </c>
       <c r="U32">
-        <v>15289</v>
+        <v>5623</v>
       </c>
       <c r="V32">
-        <v>1586</v>
+        <v>448</v>
       </c>
       <c r="W32">
-        <v>-122</v>
+        <v>-107</v>
       </c>
       <c r="X32">
-        <v>-120</v>
+        <v>565</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z32">
-        <v>13</v>
+        <v>-98</v>
       </c>
       <c r="AA32">
-        <v>669</v>
+        <v>593</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>41639</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>720</v>
+        <v>602</v>
       </c>
       <c r="D33">
-        <v>1982</v>
+        <v>1775</v>
       </c>
       <c r="E33">
-        <v>83967</v>
+        <v>64123</v>
       </c>
       <c r="F33">
-        <v>1893</v>
+        <v>1686</v>
       </c>
       <c r="G33">
-        <v>101500</v>
+        <v>71494</v>
       </c>
       <c r="H33">
-        <v>105842</v>
+        <v>79340</v>
       </c>
       <c r="I33">
-        <v>63674</v>
+        <v>44959</v>
       </c>
       <c r="J33">
-        <v>25449</v>
+        <v>20473</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,247 +3402,247 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>69377</v>
+        <v>47973</v>
       </c>
       <c r="O33">
-        <v>94826</v>
+        <v>68531</v>
       </c>
       <c r="P33">
-        <v>26999</v>
+        <v>20621</v>
       </c>
       <c r="Q33">
-        <v>690</v>
+        <v>931</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>41639</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>14128</v>
       </c>
       <c r="T33">
-        <v>11016</v>
+        <v>10809</v>
       </c>
       <c r="U33">
-        <v>16019</v>
+        <v>6554</v>
       </c>
       <c r="V33">
-        <v>1606</v>
+        <v>982</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>-105</v>
       </c>
       <c r="X33">
-        <v>2120</v>
+        <v>3210</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-298</v>
+        <v>-45</v>
       </c>
       <c r="AA33">
-        <v>720</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>41729</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>687</v>
+        <v>631</v>
       </c>
       <c r="D34">
-        <v>2007</v>
+        <v>1806</v>
       </c>
       <c r="E34">
-        <v>87471</v>
+        <v>62128</v>
       </c>
       <c r="F34">
-        <v>1914</v>
+        <v>1722</v>
       </c>
       <c r="G34">
-        <v>103580</v>
+        <v>72788</v>
       </c>
       <c r="H34">
-        <v>109553</v>
+        <v>79584</v>
       </c>
       <c r="I34">
-        <v>67759</v>
+        <v>44984</v>
       </c>
       <c r="J34">
-        <v>27228</v>
+        <v>18142</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-2352</v>
       </c>
       <c r="N34">
-        <v>71051</v>
+        <v>50421</v>
       </c>
       <c r="O34">
-        <v>98423</v>
+        <v>68563</v>
       </c>
       <c r="P34">
-        <v>27230</v>
+        <v>20314</v>
       </c>
       <c r="Q34">
-        <v>-1464</v>
+        <v>2177</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>41729</v>
       </c>
       <c r="S34">
-        <v>16600</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>11130</v>
+        <v>11021</v>
       </c>
       <c r="U34">
-        <v>13299</v>
+        <v>8731</v>
       </c>
       <c r="V34">
-        <v>761</v>
+        <v>1129</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>-106</v>
       </c>
       <c r="X34">
-        <v>3589</v>
+        <v>-763</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-1575</v>
+        <v>1143</v>
       </c>
       <c r="AA34">
-        <v>687</v>
+        <v>631</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>41820</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>726</v>
+        <v>644</v>
       </c>
       <c r="D35">
-        <v>1954</v>
+        <v>1812</v>
       </c>
       <c r="E35">
-        <v>85609</v>
+        <v>64132</v>
       </c>
       <c r="F35">
-        <v>1855</v>
+        <v>1725</v>
       </c>
       <c r="G35">
-        <v>101795</v>
+        <v>72072</v>
       </c>
       <c r="H35">
-        <v>110720</v>
+        <v>78937</v>
       </c>
       <c r="I35">
-        <v>68916</v>
+        <v>44445</v>
       </c>
       <c r="J35">
-        <v>22604</v>
+        <v>19057</v>
       </c>
       <c r="K35">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-2863</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>76814</v>
+        <v>48499</v>
       </c>
       <c r="O35">
-        <v>99461</v>
+        <v>67556</v>
       </c>
       <c r="P35">
-        <v>26282</v>
+        <v>20193</v>
       </c>
       <c r="Q35">
-        <v>68</v>
+        <v>-1852</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>41820</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>11259</v>
+        <v>11381</v>
       </c>
       <c r="U35">
-        <v>15169</v>
+        <v>6879</v>
       </c>
       <c r="V35">
-        <v>2335</v>
+        <v>642</v>
       </c>
       <c r="W35">
-        <v>-134</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-499</v>
+        <v>-985</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>-2834</v>
+        <v>-100</v>
       </c>
       <c r="AA35">
-        <v>726</v>
+        <v>644</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>41912</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>753</v>
+        <v>644</v>
       </c>
       <c r="D36">
-        <v>2065</v>
+        <v>1832</v>
       </c>
       <c r="E36">
-        <v>87027</v>
+        <v>65574</v>
       </c>
       <c r="F36">
-        <v>1964</v>
+        <v>1745</v>
       </c>
       <c r="G36">
-        <v>99374</v>
+        <v>73871</v>
       </c>
       <c r="H36">
-        <v>110707</v>
+        <v>80596</v>
       </c>
       <c r="I36">
-        <v>69734</v>
+        <v>45382</v>
       </c>
       <c r="J36">
-        <v>22688</v>
+        <v>20917</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3651,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>76461</v>
+        <v>48378</v>
       </c>
       <c r="O36">
-        <v>99214</v>
+        <v>69295</v>
       </c>
       <c r="P36">
-        <v>25167</v>
+        <v>21067</v>
       </c>
       <c r="Q36">
-        <v>-3860</v>
+        <v>503</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>41912</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>11493</v>
+        <v>11301</v>
       </c>
       <c r="U36">
-        <v>10313</v>
+        <v>7382</v>
       </c>
       <c r="V36">
-        <v>1578</v>
+        <v>1055</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="X36">
-        <v>-1017</v>
+        <v>1075</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-2254</v>
+        <v>-102</v>
       </c>
       <c r="AA36">
-        <v>753</v>
+        <v>644</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>42004</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>770</v>
+        <v>404</v>
       </c>
       <c r="D37">
-        <v>2101</v>
+        <v>1757</v>
       </c>
       <c r="E37">
-        <v>89194</v>
+        <v>68101</v>
       </c>
       <c r="F37">
-        <v>2005</v>
+        <v>1669</v>
       </c>
       <c r="G37">
-        <v>96360</v>
+        <v>76274</v>
       </c>
       <c r="H37">
-        <v>110786</v>
+        <v>83126</v>
       </c>
       <c r="I37">
-        <v>71021</v>
+        <v>46089</v>
       </c>
       <c r="J37">
-        <v>24254</v>
+        <v>22543</v>
       </c>
       <c r="K37">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,247 +3734,247 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>74758</v>
+        <v>49280</v>
       </c>
       <c r="O37">
-        <v>99069</v>
+        <v>71992</v>
       </c>
       <c r="P37">
-        <v>24458</v>
+        <v>22680</v>
       </c>
       <c r="Q37">
-        <v>-5241</v>
+        <v>-98</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>42004</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>14676</v>
       </c>
       <c r="T37">
-        <v>11717</v>
+        <v>11134</v>
       </c>
       <c r="U37">
-        <v>6075</v>
+        <v>7284</v>
       </c>
       <c r="V37">
-        <v>819</v>
+        <v>1000</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>-119</v>
       </c>
       <c r="X37">
-        <v>-30</v>
+        <v>1774</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>-3071</v>
+        <v>26</v>
       </c>
       <c r="AA37">
-        <v>770</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>42094</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>708</v>
+        <v>586</v>
       </c>
       <c r="D38">
-        <v>2108</v>
+        <v>1781</v>
       </c>
       <c r="E38">
-        <v>92511</v>
+        <v>65692</v>
       </c>
       <c r="F38">
-        <v>1995</v>
+        <v>1693</v>
       </c>
       <c r="G38">
-        <v>100519</v>
+        <v>78466</v>
       </c>
       <c r="H38">
-        <v>113996</v>
+        <v>84178</v>
       </c>
       <c r="I38">
-        <v>72746</v>
+        <v>46427</v>
       </c>
       <c r="J38">
-        <v>25701</v>
+        <v>20623</v>
       </c>
       <c r="K38">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-1083</v>
       </c>
       <c r="N38">
-        <v>76237</v>
+        <v>52344</v>
       </c>
       <c r="O38">
-        <v>102137</v>
+        <v>72967</v>
       </c>
       <c r="P38">
-        <v>25708</v>
+        <v>23145</v>
       </c>
       <c r="Q38">
-        <v>852</v>
+        <v>4530</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>42094</v>
       </c>
       <c r="S38">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>11859</v>
+        <v>11211</v>
       </c>
       <c r="U38">
-        <v>6924</v>
+        <v>11814</v>
       </c>
       <c r="V38">
-        <v>1464</v>
+        <v>1063</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>-119</v>
       </c>
       <c r="X38">
-        <v>2443</v>
+        <v>214</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>1013</v>
+        <v>1168</v>
       </c>
       <c r="AA38">
-        <v>708</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>42185</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-61</v>
+        <v>599</v>
       </c>
       <c r="D39">
-        <v>1081</v>
+        <v>1869</v>
       </c>
       <c r="E39">
-        <v>86050</v>
+        <v>67138</v>
       </c>
       <c r="F39">
-        <v>967</v>
+        <v>1779</v>
       </c>
       <c r="G39">
-        <v>98289</v>
+        <v>79295</v>
       </c>
       <c r="H39">
-        <v>112657</v>
+        <v>84911</v>
       </c>
       <c r="I39">
-        <v>73418</v>
+        <v>46316</v>
       </c>
       <c r="J39">
-        <v>21339</v>
+        <v>22599</v>
       </c>
       <c r="K39">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-510</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>81582</v>
+        <v>51049</v>
       </c>
       <c r="O39">
-        <v>102992</v>
+        <v>73648</v>
       </c>
       <c r="P39">
-        <v>26108</v>
+        <v>24277</v>
       </c>
       <c r="Q39">
-        <v>4247</v>
+        <v>-1219</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>42185</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>9665</v>
+        <v>11263</v>
       </c>
       <c r="U39">
-        <v>10028</v>
+        <v>10595</v>
       </c>
       <c r="V39">
-        <v>1680</v>
+        <v>600</v>
       </c>
       <c r="W39">
-        <v>-138</v>
+        <v>-135</v>
       </c>
       <c r="X39">
-        <v>170</v>
+        <v>475</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="AA39">
-        <v>-61</v>
+        <v>599</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>42277</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-368</v>
+        <v>612</v>
       </c>
       <c r="D40">
-        <v>616</v>
+        <v>1856</v>
       </c>
       <c r="E40">
-        <v>80743</v>
+        <v>68334</v>
       </c>
       <c r="F40">
-        <v>499</v>
+        <v>1772</v>
       </c>
       <c r="G40">
-        <v>96887</v>
+        <v>79385</v>
       </c>
       <c r="H40">
-        <v>113792</v>
+        <v>85611</v>
       </c>
       <c r="I40">
-        <v>77364</v>
+        <v>46605</v>
       </c>
       <c r="J40">
-        <v>21340</v>
+        <v>23550</v>
       </c>
       <c r="K40">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +3983,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>82739</v>
+        <v>50758</v>
       </c>
       <c r="O40">
-        <v>104149</v>
+        <v>74308</v>
       </c>
       <c r="P40">
-        <v>23201</v>
+        <v>23869</v>
       </c>
       <c r="Q40">
-        <v>3956</v>
+        <v>-345</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>42277</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>9643</v>
+        <v>11303</v>
       </c>
       <c r="U40">
-        <v>15138</v>
+        <v>10250</v>
       </c>
       <c r="V40">
-        <v>1587</v>
+        <v>1147</v>
       </c>
       <c r="W40">
-        <v>-151</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>1373</v>
+        <v>-745</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>-2256</v>
+        <v>66</v>
       </c>
       <c r="AA40">
-        <v>-368</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>42369</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>771</v>
+        <v>500</v>
       </c>
       <c r="D41">
-        <v>1964</v>
+        <v>1721</v>
       </c>
       <c r="E41">
-        <v>80434</v>
+        <v>70516</v>
       </c>
       <c r="F41">
-        <v>1853</v>
+        <v>1634</v>
       </c>
       <c r="G41">
-        <v>97440</v>
+        <v>80869</v>
       </c>
       <c r="H41">
-        <v>124349</v>
+        <v>86799</v>
       </c>
       <c r="I41">
-        <v>78015</v>
+        <v>47531</v>
       </c>
       <c r="J41">
-        <v>21291</v>
+        <v>24650</v>
       </c>
       <c r="K41">
-        <v>10702</v>
+        <v>38</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4066,1705 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>92744</v>
+        <v>50724</v>
       </c>
       <c r="O41">
-        <v>114097</v>
+        <v>75524</v>
       </c>
       <c r="P41">
-        <v>32543</v>
+        <v>24688</v>
       </c>
       <c r="Q41">
-        <v>-5078</v>
+        <v>-678</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>42369</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>15036</v>
       </c>
       <c r="T41">
-        <v>10252</v>
+        <v>11275</v>
       </c>
       <c r="U41">
-        <v>9513</v>
+        <v>9572</v>
       </c>
       <c r="V41">
-        <v>1296</v>
+        <v>1044</v>
       </c>
       <c r="W41">
-        <v>-135</v>
+        <v>-130</v>
       </c>
       <c r="X41">
-        <v>-799</v>
+        <v>1358</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-5224</v>
+        <v>-506</v>
       </c>
       <c r="AA41">
-        <v>771</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>42460</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>575</v>
+      </c>
+      <c r="D42">
+        <v>1800</v>
+      </c>
+      <c r="E42">
+        <v>68399</v>
+      </c>
+      <c r="F42">
+        <v>1712</v>
+      </c>
+      <c r="G42">
+        <v>82268</v>
+      </c>
+      <c r="H42">
+        <v>88093</v>
+      </c>
+      <c r="I42">
+        <v>48465</v>
+      </c>
+      <c r="J42">
+        <v>22602</v>
+      </c>
+      <c r="K42">
+        <v>78</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-980</v>
+      </c>
+      <c r="N42">
+        <v>54175</v>
+      </c>
+      <c r="O42">
+        <v>76777</v>
+      </c>
+      <c r="P42">
+        <v>24830</v>
+      </c>
+      <c r="Q42">
+        <v>2563</v>
+      </c>
+      <c r="R42">
+        <v>42460</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>11316</v>
+      </c>
+      <c r="U42">
+        <v>12135</v>
+      </c>
+      <c r="V42">
+        <v>1158</v>
+      </c>
+      <c r="W42">
+        <v>-129</v>
+      </c>
+      <c r="X42">
+        <v>423</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>146</v>
+      </c>
+      <c r="AA42">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>616</v>
+      </c>
+      <c r="D43">
+        <v>1804</v>
+      </c>
+      <c r="E43">
+        <v>69975</v>
+      </c>
+      <c r="F43">
+        <v>1715</v>
+      </c>
+      <c r="G43">
+        <v>82466</v>
+      </c>
+      <c r="H43">
+        <v>87511</v>
+      </c>
+      <c r="I43">
+        <v>48527</v>
+      </c>
+      <c r="J43">
+        <v>23431</v>
+      </c>
+      <c r="K43">
+        <v>88</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>52683</v>
+      </c>
+      <c r="O43">
+        <v>76114</v>
+      </c>
+      <c r="P43">
+        <v>24769</v>
+      </c>
+      <c r="Q43">
+        <v>-1518</v>
+      </c>
+      <c r="R43">
+        <v>42551</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>11397</v>
+      </c>
+      <c r="U43">
+        <v>10617</v>
+      </c>
+      <c r="V43">
+        <v>658</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-598</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-574</v>
+      </c>
+      <c r="AA43">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>639</v>
+      </c>
+      <c r="D44">
+        <v>1856</v>
+      </c>
+      <c r="E44">
+        <v>71527</v>
+      </c>
+      <c r="F44">
+        <v>1775</v>
+      </c>
+      <c r="G44">
+        <v>86159</v>
+      </c>
+      <c r="H44">
+        <v>90541</v>
+      </c>
+      <c r="I44">
+        <v>49245</v>
+      </c>
+      <c r="J44">
+        <v>25580</v>
+      </c>
+      <c r="K44">
+        <v>66</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>53614</v>
+      </c>
+      <c r="O44">
+        <v>79194</v>
+      </c>
+      <c r="P44">
+        <v>26896</v>
+      </c>
+      <c r="Q44">
+        <v>1459</v>
+      </c>
+      <c r="R44">
+        <v>42643</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>11347</v>
+      </c>
+      <c r="U44">
+        <v>12076</v>
+      </c>
+      <c r="V44">
+        <v>1317</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>2149</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>795</v>
+      </c>
+      <c r="AA44">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>563</v>
+      </c>
+      <c r="D45">
+        <v>1780</v>
+      </c>
+      <c r="E45">
+        <v>75087</v>
+      </c>
+      <c r="F45">
+        <v>1699</v>
+      </c>
+      <c r="G45">
+        <v>87827</v>
+      </c>
+      <c r="H45">
+        <v>92308</v>
+      </c>
+      <c r="I45">
+        <v>51992</v>
+      </c>
+      <c r="J45">
+        <v>25443</v>
+      </c>
+      <c r="K45">
+        <v>94</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>55377</v>
+      </c>
+      <c r="O45">
+        <v>80985</v>
+      </c>
+      <c r="P45">
+        <v>25537</v>
+      </c>
+      <c r="Q45">
+        <v>-162</v>
+      </c>
+      <c r="R45">
+        <v>42735</v>
+      </c>
+      <c r="S45">
+        <v>15549</v>
+      </c>
+      <c r="T45">
+        <v>11323</v>
+      </c>
+      <c r="U45">
+        <v>11914</v>
+      </c>
+      <c r="V45">
+        <v>1292</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>837</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>892</v>
+      </c>
+      <c r="AA45">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>564</v>
+      </c>
+      <c r="D46">
+        <v>1753</v>
+      </c>
+      <c r="E46">
+        <v>73589</v>
+      </c>
+      <c r="F46">
+        <v>1673</v>
+      </c>
+      <c r="G46">
+        <v>90603</v>
+      </c>
+      <c r="H46">
+        <v>94795</v>
+      </c>
+      <c r="I46">
+        <v>53522</v>
+      </c>
+      <c r="J46">
+        <v>22573</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-925</v>
+      </c>
+      <c r="N46">
+        <v>60957</v>
+      </c>
+      <c r="O46">
+        <v>83530</v>
+      </c>
+      <c r="P46">
+        <v>26832</v>
+      </c>
+      <c r="Q46">
+        <v>4254</v>
+      </c>
+      <c r="R46">
+        <v>42825</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>11265</v>
+      </c>
+      <c r="U46">
+        <v>15163</v>
+      </c>
+      <c r="V46">
+        <v>1013</v>
+      </c>
+      <c r="W46">
+        <v>-127</v>
+      </c>
+      <c r="X46">
+        <v>2253</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>25</v>
+      </c>
+      <c r="AA46">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>546</v>
+      </c>
+      <c r="D47">
+        <v>1779</v>
+      </c>
+      <c r="E47">
+        <v>75613</v>
+      </c>
+      <c r="F47">
+        <v>1702</v>
+      </c>
+      <c r="G47">
+        <v>89407</v>
+      </c>
+      <c r="H47">
+        <v>93757</v>
+      </c>
+      <c r="I47">
+        <v>52864</v>
+      </c>
+      <c r="J47">
+        <v>24237</v>
+      </c>
+      <c r="K47">
+        <v>13</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>58261</v>
+      </c>
+      <c r="O47">
+        <v>82498</v>
+      </c>
+      <c r="P47">
+        <v>26451</v>
+      </c>
+      <c r="Q47">
+        <v>-3220</v>
+      </c>
+      <c r="R47">
+        <v>42916</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>11259</v>
+      </c>
+      <c r="U47">
+        <v>12950</v>
+      </c>
+      <c r="V47">
+        <v>1019</v>
+      </c>
+      <c r="W47">
+        <v>-124</v>
+      </c>
+      <c r="X47">
+        <v>-1664</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>41</v>
+      </c>
+      <c r="AA47">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>602</v>
+      </c>
+      <c r="D48">
+        <v>1851</v>
+      </c>
+      <c r="E48">
+        <v>77912</v>
+      </c>
+      <c r="F48">
+        <v>1773</v>
+      </c>
+      <c r="G48">
+        <v>93240</v>
+      </c>
+      <c r="H48">
+        <v>97608</v>
+      </c>
+      <c r="I48">
+        <v>56135</v>
+      </c>
+      <c r="J48">
+        <v>25536</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>60885</v>
+      </c>
+      <c r="O48">
+        <v>86421</v>
+      </c>
+      <c r="P48">
+        <v>26747</v>
+      </c>
+      <c r="Q48">
+        <v>1485</v>
+      </c>
+      <c r="R48">
+        <v>43008</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>11187</v>
+      </c>
+      <c r="U48">
+        <v>13249</v>
+      </c>
+      <c r="V48">
+        <v>1552</v>
+      </c>
+      <c r="W48">
+        <v>-139</v>
+      </c>
+      <c r="X48">
+        <v>2850</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>46</v>
+      </c>
+      <c r="AA48">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>387</v>
+      </c>
+      <c r="D49">
+        <v>1935</v>
+      </c>
+      <c r="E49">
+        <v>81627</v>
+      </c>
+      <c r="F49">
+        <v>1855</v>
+      </c>
+      <c r="G49">
+        <v>95838</v>
+      </c>
+      <c r="H49">
+        <v>100087</v>
+      </c>
+      <c r="I49">
+        <v>58764</v>
+      </c>
+      <c r="J49">
+        <v>26326</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>62690</v>
+      </c>
+      <c r="O49">
+        <v>89195</v>
+      </c>
+      <c r="P49">
+        <v>26329</v>
+      </c>
+      <c r="Q49">
+        <v>-1141</v>
+      </c>
+      <c r="R49">
+        <v>43100</v>
+      </c>
+      <c r="S49">
+        <v>16500</v>
+      </c>
+      <c r="T49">
+        <v>10892</v>
+      </c>
+      <c r="U49">
+        <v>13306</v>
+      </c>
+      <c r="V49">
+        <v>1624</v>
+      </c>
+      <c r="W49">
+        <v>-137</v>
+      </c>
+      <c r="X49">
+        <v>1522</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>16</v>
+      </c>
+      <c r="AA49">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>666</v>
+      </c>
+      <c r="D50">
+        <v>1824</v>
+      </c>
+      <c r="E50">
+        <v>80008</v>
+      </c>
+      <c r="F50">
+        <v>1742</v>
+      </c>
+      <c r="G50">
+        <v>97946</v>
+      </c>
+      <c r="H50">
+        <v>101967</v>
+      </c>
+      <c r="I50">
+        <v>61130</v>
+      </c>
+      <c r="J50">
+        <v>22974</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-2545</v>
+      </c>
+      <c r="N50">
+        <v>68122</v>
+      </c>
+      <c r="O50">
+        <v>91096</v>
+      </c>
+      <c r="P50">
+        <v>26245</v>
+      </c>
+      <c r="Q50">
+        <v>3711</v>
+      </c>
+      <c r="R50">
+        <v>43190</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>10871</v>
+      </c>
+      <c r="U50">
+        <v>17011</v>
+      </c>
+      <c r="V50">
+        <v>1238</v>
+      </c>
+      <c r="W50">
+        <v>-142</v>
+      </c>
+      <c r="X50">
+        <v>1557</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>15</v>
+      </c>
+      <c r="AA50">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>669</v>
+      </c>
+      <c r="D51">
+        <v>1861</v>
+      </c>
+      <c r="E51">
+        <v>81961</v>
+      </c>
+      <c r="F51">
+        <v>1775</v>
+      </c>
+      <c r="G51">
+        <v>98736</v>
+      </c>
+      <c r="H51">
+        <v>102751</v>
+      </c>
+      <c r="I51">
+        <v>61683</v>
+      </c>
+      <c r="J51">
+        <v>23479</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>68383</v>
+      </c>
+      <c r="O51">
+        <v>91862</v>
+      </c>
+      <c r="P51">
+        <v>26252</v>
+      </c>
+      <c r="Q51">
+        <v>-1179</v>
+      </c>
+      <c r="R51">
+        <v>43281</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>10889</v>
+      </c>
+      <c r="U51">
+        <v>15289</v>
+      </c>
+      <c r="V51">
+        <v>1586</v>
+      </c>
+      <c r="W51">
+        <v>-122</v>
+      </c>
+      <c r="X51">
+        <v>-120</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>13</v>
+      </c>
+      <c r="AA51">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>720</v>
+      </c>
+      <c r="D52">
+        <v>1982</v>
+      </c>
+      <c r="E52">
+        <v>83967</v>
+      </c>
+      <c r="F52">
+        <v>1893</v>
+      </c>
+      <c r="G52">
+        <v>101500</v>
+      </c>
+      <c r="H52">
+        <v>105842</v>
+      </c>
+      <c r="I52">
+        <v>63674</v>
+      </c>
+      <c r="J52">
+        <v>25449</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>69377</v>
+      </c>
+      <c r="O52">
+        <v>94826</v>
+      </c>
+      <c r="P52">
+        <v>26999</v>
+      </c>
+      <c r="Q52">
+        <v>690</v>
+      </c>
+      <c r="R52">
+        <v>43373</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>11016</v>
+      </c>
+      <c r="U52">
+        <v>16019</v>
+      </c>
+      <c r="V52">
+        <v>1606</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>2120</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-298</v>
+      </c>
+      <c r="AA52">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>687</v>
+      </c>
+      <c r="D53">
+        <v>2007</v>
+      </c>
+      <c r="E53">
+        <v>87471</v>
+      </c>
+      <c r="F53">
+        <v>1914</v>
+      </c>
+      <c r="G53">
+        <v>103580</v>
+      </c>
+      <c r="H53">
+        <v>109553</v>
+      </c>
+      <c r="I53">
+        <v>67759</v>
+      </c>
+      <c r="J53">
+        <v>27228</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>71051</v>
+      </c>
+      <c r="O53">
+        <v>98423</v>
+      </c>
+      <c r="P53">
+        <v>27230</v>
+      </c>
+      <c r="Q53">
+        <v>-1464</v>
+      </c>
+      <c r="R53">
+        <v>43465</v>
+      </c>
+      <c r="S53">
+        <v>16600</v>
+      </c>
+      <c r="T53">
+        <v>11130</v>
+      </c>
+      <c r="U53">
+        <v>13299</v>
+      </c>
+      <c r="V53">
+        <v>761</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>3589</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-1575</v>
+      </c>
+      <c r="AA53">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>726</v>
+      </c>
+      <c r="D54">
+        <v>1954</v>
+      </c>
+      <c r="E54">
+        <v>85609</v>
+      </c>
+      <c r="F54">
+        <v>1855</v>
+      </c>
+      <c r="G54">
+        <v>101795</v>
+      </c>
+      <c r="H54">
+        <v>110720</v>
+      </c>
+      <c r="I54">
+        <v>68916</v>
+      </c>
+      <c r="J54">
+        <v>22604</v>
+      </c>
+      <c r="K54">
+        <v>6</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-2863</v>
+      </c>
+      <c r="N54">
+        <v>76814</v>
+      </c>
+      <c r="O54">
+        <v>99461</v>
+      </c>
+      <c r="P54">
+        <v>26282</v>
+      </c>
+      <c r="Q54">
+        <v>68</v>
+      </c>
+      <c r="R54">
+        <v>43555</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>11259</v>
+      </c>
+      <c r="U54">
+        <v>15169</v>
+      </c>
+      <c r="V54">
+        <v>2335</v>
+      </c>
+      <c r="W54">
+        <v>-134</v>
+      </c>
+      <c r="X54">
+        <v>-499</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-2834</v>
+      </c>
+      <c r="AA54">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>753</v>
+      </c>
+      <c r="D55">
+        <v>2065</v>
+      </c>
+      <c r="E55">
+        <v>87027</v>
+      </c>
+      <c r="F55">
+        <v>1964</v>
+      </c>
+      <c r="G55">
+        <v>99374</v>
+      </c>
+      <c r="H55">
+        <v>110707</v>
+      </c>
+      <c r="I55">
+        <v>69734</v>
+      </c>
+      <c r="J55">
+        <v>22688</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>76461</v>
+      </c>
+      <c r="O55">
+        <v>99214</v>
+      </c>
+      <c r="P55">
+        <v>25167</v>
+      </c>
+      <c r="Q55">
+        <v>-3860</v>
+      </c>
+      <c r="R55">
+        <v>43646</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>11493</v>
+      </c>
+      <c r="U55">
+        <v>10313</v>
+      </c>
+      <c r="V55">
+        <v>1578</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-1017</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-2254</v>
+      </c>
+      <c r="AA55">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>770</v>
+      </c>
+      <c r="D56">
+        <v>2101</v>
+      </c>
+      <c r="E56">
+        <v>89194</v>
+      </c>
+      <c r="F56">
+        <v>2005</v>
+      </c>
+      <c r="G56">
+        <v>96360</v>
+      </c>
+      <c r="H56">
+        <v>110786</v>
+      </c>
+      <c r="I56">
+        <v>71021</v>
+      </c>
+      <c r="J56">
+        <v>24254</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>74758</v>
+      </c>
+      <c r="O56">
+        <v>99069</v>
+      </c>
+      <c r="P56">
+        <v>24458</v>
+      </c>
+      <c r="Q56">
+        <v>-5241</v>
+      </c>
+      <c r="R56">
+        <v>43738</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>11717</v>
+      </c>
+      <c r="U56">
+        <v>6075</v>
+      </c>
+      <c r="V56">
+        <v>819</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-30</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-3071</v>
+      </c>
+      <c r="AA56">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>708</v>
+      </c>
+      <c r="D57">
+        <v>2108</v>
+      </c>
+      <c r="E57">
+        <v>92511</v>
+      </c>
+      <c r="F57">
+        <v>1995</v>
+      </c>
+      <c r="G57">
+        <v>100519</v>
+      </c>
+      <c r="H57">
+        <v>113996</v>
+      </c>
+      <c r="I57">
+        <v>72746</v>
+      </c>
+      <c r="J57">
+        <v>25701</v>
+      </c>
+      <c r="K57">
+        <v>7</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>76237</v>
+      </c>
+      <c r="O57">
+        <v>102137</v>
+      </c>
+      <c r="P57">
+        <v>25708</v>
+      </c>
+      <c r="Q57">
+        <v>852</v>
+      </c>
+      <c r="R57">
+        <v>43830</v>
+      </c>
+      <c r="S57">
+        <v>17200</v>
+      </c>
+      <c r="T57">
+        <v>11859</v>
+      </c>
+      <c r="U57">
+        <v>6924</v>
+      </c>
+      <c r="V57">
+        <v>1464</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>2443</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>1013</v>
+      </c>
+      <c r="AA57">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>-61</v>
+      </c>
+      <c r="D58">
+        <v>1081</v>
+      </c>
+      <c r="E58">
+        <v>86050</v>
+      </c>
+      <c r="F58">
+        <v>967</v>
+      </c>
+      <c r="G58">
+        <v>98289</v>
+      </c>
+      <c r="H58">
+        <v>112657</v>
+      </c>
+      <c r="I58">
+        <v>73418</v>
+      </c>
+      <c r="J58">
+        <v>21339</v>
+      </c>
+      <c r="K58">
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-510</v>
+      </c>
+      <c r="N58">
+        <v>81582</v>
+      </c>
+      <c r="O58">
+        <v>102992</v>
+      </c>
+      <c r="P58">
+        <v>26108</v>
+      </c>
+      <c r="Q58">
+        <v>4247</v>
+      </c>
+      <c r="R58">
+        <v>43921</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>9665</v>
+      </c>
+      <c r="U58">
+        <v>10028</v>
+      </c>
+      <c r="V58">
+        <v>1680</v>
+      </c>
+      <c r="W58">
+        <v>-138</v>
+      </c>
+      <c r="X58">
+        <v>170</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>188</v>
+      </c>
+      <c r="AA58">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>-368</v>
+      </c>
+      <c r="D59">
+        <v>616</v>
+      </c>
+      <c r="E59">
+        <v>80743</v>
+      </c>
+      <c r="F59">
+        <v>499</v>
+      </c>
+      <c r="G59">
+        <v>96887</v>
+      </c>
+      <c r="H59">
+        <v>113792</v>
+      </c>
+      <c r="I59">
+        <v>77364</v>
+      </c>
+      <c r="J59">
+        <v>21340</v>
+      </c>
+      <c r="K59">
+        <v>7</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>82739</v>
+      </c>
+      <c r="O59">
+        <v>104149</v>
+      </c>
+      <c r="P59">
+        <v>23201</v>
+      </c>
+      <c r="Q59">
+        <v>3956</v>
+      </c>
+      <c r="R59">
+        <v>44012</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>9643</v>
+      </c>
+      <c r="U59">
+        <v>15138</v>
+      </c>
+      <c r="V59">
+        <v>1587</v>
+      </c>
+      <c r="W59">
+        <v>-151</v>
+      </c>
+      <c r="X59">
+        <v>1373</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-2256</v>
+      </c>
+      <c r="AA59">
+        <v>-368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>771</v>
+      </c>
+      <c r="D60">
+        <v>1964</v>
+      </c>
+      <c r="E60">
+        <v>80434</v>
+      </c>
+      <c r="F60">
+        <v>1853</v>
+      </c>
+      <c r="G60">
+        <v>97440</v>
+      </c>
+      <c r="H60">
+        <v>124349</v>
+      </c>
+      <c r="I60">
+        <v>78015</v>
+      </c>
+      <c r="J60">
+        <v>21291</v>
+      </c>
+      <c r="K60">
+        <v>10702</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>92744</v>
+      </c>
+      <c r="O60">
+        <v>114097</v>
+      </c>
+      <c r="P60">
+        <v>32543</v>
+      </c>
+      <c r="Q60">
+        <v>-5078</v>
+      </c>
+      <c r="R60">
+        <v>44104</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>10252</v>
+      </c>
+      <c r="U60">
+        <v>9513</v>
+      </c>
+      <c r="V60">
+        <v>1296</v>
+      </c>
+      <c r="W60">
+        <v>-135</v>
+      </c>
+      <c r="X60">
+        <v>-799</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-5224</v>
+      </c>
+      <c r="AA60">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
         <v>799</v>
       </c>
-      <c r="D42">
+      <c r="D61">
         <v>2293</v>
       </c>
-      <c r="E42">
+      <c r="E61">
         <v>82223</v>
       </c>
-      <c r="F42">
+      <c r="F61">
         <v>2095</v>
       </c>
-      <c r="G42">
+      <c r="G61">
         <v>96805</v>
       </c>
-      <c r="H42">
+      <c r="H61">
         <v>112889</v>
       </c>
-      <c r="I42">
+      <c r="I61">
         <v>76904</v>
       </c>
-      <c r="J42">
+      <c r="J61">
         <v>17024</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
         <v>84682</v>
       </c>
-      <c r="O42">
+      <c r="O61">
         <v>102005</v>
       </c>
-      <c r="P42">
+      <c r="P61">
         <v>21326</v>
       </c>
-      <c r="Q42">
+      <c r="Q61">
         <v>3500</v>
       </c>
-      <c r="R42">
+      <c r="R61">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S61">
         <v>17600</v>
       </c>
-      <c r="T42">
+      <c r="T61">
         <v>10884</v>
       </c>
-      <c r="U42">
+      <c r="U61">
         <v>13564</v>
       </c>
-      <c r="V42">
+      <c r="V61">
         <v>1633</v>
       </c>
-      <c r="W42">
+      <c r="W61">
         <v>-152</v>
       </c>
-      <c r="X42">
+      <c r="X61">
         <v>-1829</v>
       </c>
-      <c r="Y42">
+      <c r="Y61">
         <v>72</v>
       </c>
-      <c r="Z42">
+      <c r="Z61">
         <v>6022</v>
       </c>
-      <c r="AA42">
+      <c r="AA61">
         <v>799</v>
       </c>
     </row>
